--- a/data/coded_segments/zm_5_1.xlsx
+++ b/data/coded_segments/zm_5_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC76AEEB-FCBB-D94B-88B6-D8268802946D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AC9E12E-05DE-C04E-9E92-147CA7767E3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="714">
   <si>
     <t>Color</t>
   </si>
@@ -2173,6 +2173,63 @@
   </si>
   <si>
     <t>10/30/18 11:32:00</t>
+  </si>
+  <si>
+    <t>1: 1003</t>
+  </si>
+  <si>
+    <t>1: 1023</t>
+  </si>
+  <si>
+    <t>Staphylococcus aureus</t>
+  </si>
+  <si>
+    <t>11/8/18 14:45:00</t>
+  </si>
+  <si>
+    <t>1: 3451</t>
+  </si>
+  <si>
+    <t>1: 3471</t>
+  </si>
+  <si>
+    <t>Neisseria gonorrhoeae</t>
+  </si>
+  <si>
+    <t>11/8/18 14:46:00</t>
+  </si>
+  <si>
+    <t>1: 1015</t>
+  </si>
+  <si>
+    <t>1: 1035</t>
+  </si>
+  <si>
+    <t>Mycoplasma genitalium</t>
+  </si>
+  <si>
+    <t>11/8/18 14:47:00</t>
+  </si>
+  <si>
+    <t>1: 2652</t>
+  </si>
+  <si>
+    <t>1: 2662</t>
+  </si>
+  <si>
+    <t>S. enterica</t>
+  </si>
+  <si>
+    <t>11/8/18 14:48:00</t>
+  </si>
+  <si>
+    <t>1: 2673</t>
+  </si>
+  <si>
+    <t>1: 2683</t>
+  </si>
+  <si>
+    <t>typhimurium</t>
   </si>
 </sst>
 </file>
@@ -2637,7 +2694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M230"/>
+  <dimension ref="A1:M235"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12083,6 +12140,211 @@
         <v>694</v>
       </c>
     </row>
+    <row r="231" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A231" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="H231" s="3">
+        <v>0</v>
+      </c>
+      <c r="I231" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="J231" s="3">
+        <v>21</v>
+      </c>
+      <c r="K231" s="4">
+        <v>8.0911999999999998E-2</v>
+      </c>
+      <c r="L231" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="M231" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A232" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="H232" s="3">
+        <v>0</v>
+      </c>
+      <c r="I232" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="J232" s="3">
+        <v>21</v>
+      </c>
+      <c r="K232" s="4">
+        <v>4.6607000000000003E-2</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="M232" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A233" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="H233" s="3">
+        <v>0</v>
+      </c>
+      <c r="I233" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="J233" s="3">
+        <v>21</v>
+      </c>
+      <c r="K233" s="4">
+        <v>0.107714</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="M233" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A234" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="H234" s="3">
+        <v>0</v>
+      </c>
+      <c r="I234" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="J234" s="3">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4">
+        <v>6.2825000000000006E-2</v>
+      </c>
+      <c r="L234" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="M234" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A235" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="H235" s="3">
+        <v>0</v>
+      </c>
+      <c r="I235" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="J235" s="3">
+        <v>11</v>
+      </c>
+      <c r="K235" s="4">
+        <v>6.2825000000000006E-2</v>
+      </c>
+      <c r="L235" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="M235" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/coded_segments/zm_5_1.xlsx
+++ b/data/coded_segments/zm_5_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AC9E12E-05DE-C04E-9E92-147CA7767E3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E497057-A5D2-3F4B-9A68-D65EE59BE01E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="734">
   <si>
     <t>Color</t>
   </si>
@@ -2230,6 +2230,66 @@
   </si>
   <si>
     <t>typhimurium</t>
+  </si>
+  <si>
+    <t>2: 2572</t>
+  </si>
+  <si>
+    <t>2: 2574</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>11/14/18 11:31:00</t>
+  </si>
+  <si>
+    <t>2: 2580</t>
+  </si>
+  <si>
+    <t>2: 2585</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>2: 2587</t>
+  </si>
+  <si>
+    <t>2: 2590</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>6: 665</t>
+  </si>
+  <si>
+    <t>6: 668</t>
+  </si>
+  <si>
+    <t>11/14/18 11:33:00</t>
+  </si>
+  <si>
+    <t>6: 655</t>
+  </si>
+  <si>
+    <t>6: 658</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>4: 2261</t>
+  </si>
+  <si>
+    <t>4: 2264</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>11/14/18 11:35:00</t>
   </si>
 </sst>
 </file>
@@ -2694,7 +2754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M235"/>
+  <dimension ref="A1:M241"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12345,6 +12405,252 @@
         <v>710</v>
       </c>
     </row>
+    <row r="236" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A236" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="H236" s="3">
+        <v>0</v>
+      </c>
+      <c r="I236" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="J236" s="3">
+        <v>3</v>
+      </c>
+      <c r="K236" s="4">
+        <v>1.1559E-2</v>
+      </c>
+      <c r="L236" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="M236" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A237" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="H237" s="3">
+        <v>0</v>
+      </c>
+      <c r="I237" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="J237" s="3">
+        <v>6</v>
+      </c>
+      <c r="K237" s="4">
+        <v>2.3118E-2</v>
+      </c>
+      <c r="L237" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="M237" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A238" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="H238" s="3">
+        <v>0</v>
+      </c>
+      <c r="I238" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="J238" s="3">
+        <v>4</v>
+      </c>
+      <c r="K238" s="4">
+        <v>1.5412E-2</v>
+      </c>
+      <c r="L238" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="M238" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A239" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="H239" s="3">
+        <v>0</v>
+      </c>
+      <c r="I239" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J239" s="3">
+        <v>4</v>
+      </c>
+      <c r="K239" s="4">
+        <v>8.8769999999999995E-3</v>
+      </c>
+      <c r="L239" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="M239" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A240" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="H240" s="3">
+        <v>0</v>
+      </c>
+      <c r="I240" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="J240" s="3">
+        <v>4</v>
+      </c>
+      <c r="K240" s="4">
+        <v>8.8769999999999995E-3</v>
+      </c>
+      <c r="L240" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="M240" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A241" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="H241" s="3">
+        <v>0</v>
+      </c>
+      <c r="I241" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="J241" s="3">
+        <v>4</v>
+      </c>
+      <c r="K241" s="4">
+        <v>2.0517000000000001E-2</v>
+      </c>
+      <c r="L241" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="M241" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/coded_segments/zm_5_1.xlsx
+++ b/data/coded_segments/zm_5_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50C98AB3-B575-444E-B549-CA59568C468B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AE3C0C1-28E5-304F-B408-7A4A7FCAB531}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="754">
   <si>
     <t>Color</t>
   </si>
@@ -2323,6 +2323,33 @@
   </si>
   <si>
     <t>1/16/19 17:25:02</t>
+  </si>
+  <si>
+    <t>1/30/19 18:14:53</t>
+  </si>
+  <si>
+    <t>1/30/19 18:15:09</t>
+  </si>
+  <si>
+    <t>1/30/19 18:15:13</t>
+  </si>
+  <si>
+    <t>1/30/19 18:15:40</t>
+  </si>
+  <si>
+    <t>1/30/19 18:15:45</t>
+  </si>
+  <si>
+    <t>1/30/19 18:15:49</t>
+  </si>
+  <si>
+    <t>1/30/19 18:15:54</t>
+  </si>
+  <si>
+    <t>1/30/19 18:16:26</t>
+  </si>
+  <si>
+    <t>1/30/19 18:16:33</t>
   </si>
 </sst>
 </file>
@@ -2787,7 +2814,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M249"/>
+  <dimension ref="A1:M258"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13012,6 +13039,375 @@
         <v>744</v>
       </c>
     </row>
+    <row r="250" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A250" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H250" s="3">
+        <v>0</v>
+      </c>
+      <c r="I250" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J250" s="3">
+        <v>2</v>
+      </c>
+      <c r="K250" s="4">
+        <v>1.2960082944530845E-2</v>
+      </c>
+      <c r="L250" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="M250" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A251" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H251" s="3">
+        <v>0</v>
+      </c>
+      <c r="I251" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J251" s="3">
+        <v>2</v>
+      </c>
+      <c r="K251" s="4">
+        <v>1.2960082944530845E-2</v>
+      </c>
+      <c r="L251" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="M251" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A252" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H252" s="3">
+        <v>0</v>
+      </c>
+      <c r="I252" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J252" s="3">
+        <v>2</v>
+      </c>
+      <c r="K252" s="4">
+        <v>1.2960082944530845E-2</v>
+      </c>
+      <c r="L252" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="M252" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A253" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="H253" s="3">
+        <v>0</v>
+      </c>
+      <c r="I253" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="J253" s="3">
+        <v>3</v>
+      </c>
+      <c r="K253" s="4">
+        <v>1.7201834862385322E-2</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="M253" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A254" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="H254" s="3">
+        <v>0</v>
+      </c>
+      <c r="I254" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="J254" s="3">
+        <v>3</v>
+      </c>
+      <c r="K254" s="4">
+        <v>1.7201834862385322E-2</v>
+      </c>
+      <c r="L254" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="M254" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A255" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H255" s="3">
+        <v>0</v>
+      </c>
+      <c r="I255" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="J255" s="3">
+        <v>3</v>
+      </c>
+      <c r="K255" s="4">
+        <v>1.7201834862385322E-2</v>
+      </c>
+      <c r="L255" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="M255" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A256" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H256" s="3">
+        <v>0</v>
+      </c>
+      <c r="I256" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="J256" s="3">
+        <v>3</v>
+      </c>
+      <c r="K256" s="4">
+        <v>1.7201834862385322E-2</v>
+      </c>
+      <c r="L256" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="M256" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A257" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H257" s="3">
+        <v>0</v>
+      </c>
+      <c r="I257" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J257" s="3">
+        <v>10</v>
+      </c>
+      <c r="K257" s="4">
+        <v>5.7113484493688957E-2</v>
+      </c>
+      <c r="L257" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="M257" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A258" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="H258" s="3">
+        <v>0</v>
+      </c>
+      <c r="I258" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="J258" s="3">
+        <v>11</v>
+      </c>
+      <c r="K258" s="4">
+        <v>6.2824832943057865E-2</v>
+      </c>
+      <c r="L258" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="M258" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
